--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H2">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I2">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J2">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>928.2780971674347</v>
+        <v>108.0693744614267</v>
       </c>
       <c r="R2">
-        <v>8354.502874506912</v>
+        <v>972.62437015284</v>
       </c>
       <c r="S2">
-        <v>0.02404330979903127</v>
+        <v>0.003790061230432889</v>
       </c>
       <c r="T2">
-        <v>0.02404330979903127</v>
+        <v>0.003790061230432888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H3">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I3">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J3">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>1575.897508529849</v>
+        <v>1029.589188124895</v>
       </c>
       <c r="R3">
-        <v>14183.07757676864</v>
+        <v>9266.302693124053</v>
       </c>
       <c r="S3">
-        <v>0.04081728538540586</v>
+        <v>0.03610834322519241</v>
       </c>
       <c r="T3">
-        <v>0.04081728538540586</v>
+        <v>0.03610834322519241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H4">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I4">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J4">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>677.8707978372133</v>
+        <v>442.8767991707067</v>
       </c>
       <c r="R4">
-        <v>6100.83718053492</v>
+        <v>3985.89119253636</v>
       </c>
       <c r="S4">
-        <v>0.01755751605671773</v>
+        <v>0.01553196911484139</v>
       </c>
       <c r="T4">
-        <v>0.01755751605671773</v>
+        <v>0.01553196911484139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J5">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>9279.930485825782</v>
+        <v>1653.610620373094</v>
       </c>
       <c r="R5">
-        <v>83519.37437243205</v>
+        <v>14882.49558335785</v>
       </c>
       <c r="S5">
-        <v>0.2403592676214352</v>
+        <v>0.05799316905221037</v>
       </c>
       <c r="T5">
-        <v>0.2403592676214352</v>
+        <v>0.05799316905221037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J6">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>15754.13593896879</v>
@@ -818,10 +818,10 @@
         <v>141787.2234507191</v>
       </c>
       <c r="S6">
-        <v>0.4080475152354668</v>
+        <v>0.5525074993615986</v>
       </c>
       <c r="T6">
-        <v>0.4080475152354669</v>
+        <v>0.5525074993615986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J7">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>6776.62642423196</v>
@@ -880,10 +880,10 @@
         <v>60989.63781808765</v>
       </c>
       <c r="S7">
-        <v>0.1755212462809216</v>
+        <v>0.237660569533286</v>
       </c>
       <c r="T7">
-        <v>0.1755212462809216</v>
+        <v>0.237660569533286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H8">
         <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>1054.826727914345</v>
+        <v>187.9618260715177</v>
       </c>
       <c r="R8">
-        <v>9493.440551229105</v>
+        <v>1691.65643464366</v>
       </c>
       <c r="S8">
-        <v>0.0273210429944773</v>
+        <v>0.006591939976938632</v>
       </c>
       <c r="T8">
-        <v>0.02732104299447731</v>
+        <v>0.00659193997693863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H9">
         <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>1790.7336363136</v>
@@ -1004,10 +1004,10 @@
         <v>16116.6027268224</v>
       </c>
       <c r="S9">
-        <v>0.04638175102570341</v>
+        <v>0.06280215984267376</v>
       </c>
       <c r="T9">
-        <v>0.04638175102570342</v>
+        <v>0.06280215984267376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H10">
         <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
-        <v>770.2823516069045</v>
+        <v>770.2823516069044</v>
       </c>
       <c r="R10">
-        <v>6932.541164462141</v>
+        <v>6932.541164462139</v>
       </c>
       <c r="S10">
-        <v>0.01995106560084077</v>
+        <v>0.02701428866282588</v>
       </c>
       <c r="T10">
-        <v>0.01995106560084078</v>
+        <v>0.02701428866282588</v>
       </c>
     </row>
   </sheetData>
